--- a/datasets/data_labeling/Crawl-giai_tri_tripadvisor.xlsx
+++ b/datasets/data_labeling/Crawl-giai_tri_tripadvisor.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Hackathon\datasets\data_labeling\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{034EBB18-9EC4-4706-BB67-30E4785C0ADA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5745" xr2:uid="{921F0536-792B-4FA3-9405-A98C44BA6861}"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$G$195</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$G$146</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{285D5370-A701-4001-B964-7CF66C447A80}" keepAlive="1" name="Query - data_preprocess_giai_tri" description="Connection to the 'data_preprocess_giai_tri' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=data_preprocess_giai_tri;Extended Properties=&quot;&quot;" command="SELECT * FROM [data_preprocess_giai_tri]"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Query - data_preprocess_giai_tri" description="Connection to the 'data_preprocess_giai_tri' query in the workbook." type="5" background="1" refreshedVersion="2" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=data_preprocess_giai_tri;Extended Properties=&quot;&quot;" command="SELECT * FROM [data_preprocess_giai_tri]" commandType="2"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>Review</t>
   </si>
@@ -158,9 +147,6 @@
     <t>Bãi xếp đẹp nhưng sóng to có trẻ con ko lên tắm.người dân xung quanh bãi khá thân thiện mua hải sản ăn ngon</t>
   </si>
   <si>
-    <t>Bãi biển nhỏ xinh, có 2 resort nằm ở 1 nửa bãi biển. Phần còn lại là 2 nhà hàng có ăn đơn giản và giải khát, trang trí khá bắt mắt.</t>
-  </si>
-  <si>
     <t>Bãi Xép khá vắng vẻ vì tách biệt so với thành phố, không ồn ào và náo nhiệt. Những ai đến Bãi Xép đều vì muốn thư giãn, tự do tắm biển và vui chơi sau những ngày lao động vất vả. Nơi đây hãy quên âu lo các bạn nhé!</t>
   </si>
   <si>
@@ -197,9 +183,6 @@
     <t>10 km về phía nam của Quy bào - Bãi Xép, một làng chài nhỏ với một bãi biển nhỏ có thể được tìm thấy. Bãi biển tương đối sạch theo tiêu chuẩn Việt Nam với tầm nhìn ra các đảo nhỏ. Bình minh huyền diệu. Làng chài rất thú vị khi bạn có thể khám phá và xem cuộc sống hàng ngày của người dân ở đây. Nhà khách, khu nghỉ dưỡng nằm rải rác dọc theo bãi biển với một vài nhà hàng. Tiện nghi giặt là và cửa hàng nhỏ có thể được tìm thấy trong làng. Vào buổi tối, người dân địa phương tụ tập trên bãi biển để ăn tối.</t>
   </si>
   <si>
-    <t>Điểm này là 20 phút đi xe máy từ trung tâm thành phố trong một làng chài nhỏ. Nhiều ba lô ký túc xá và khu nghỉ mát. Loại của một bãi biển lạnh.</t>
-  </si>
-  <si>
     <t>Làng chài xinh đẹp cách Quy Nhơn khoảng 10 km về phía Nam. Cát vàng và bãi biển sạch sẽ. Dễ dàng bơi lội như không có sóng và không có ván trượt!</t>
   </si>
   <si>
@@ -209,9 +192,6 @@
     <t>Mình chụp ảnh cưới ở đây, thấy rất hùng vi nếu leo lên được mỏm đá (thoai thoải, ko cao) để nhìn toàn cảnh biển, rất hùng vĩ và lãng mạng. Sau đó thì leo xuống những tảng đá dưới bãi biển cũng có những shoots hình rất nên thơ. Buổi sáng thì bình minh rất đẹp tuy nước biển k xanh, còn chiều tầm trước 5h thì nước biển xanh một màu huyền ảo, hoàng hôn thì đẹp. Eo gió nên rất nhiều gió nữa ^^. Nên đi sáng sớm hoặc chiều mát sẽ đỡ nắng gắt hơn</t>
   </si>
   <si>
-    <t>Mình đến Eo Gió vào một buổi chiều mát mẻ khoảng 3 giờ chiều. Các bạn nào đi phượt theo Googlemap sẽ gặp chút khó khăn vì bản đồ dẫn vào cung đường hẻm, rất khó đi, mình cũng không biết tại sao lại vậy. Hiện tại tập đoàn FLC đã đầu tư cho nơi này thanh khu du lịch khang trang, an toàn với du khách.</t>
-  </si>
-  <si>
     <t>Trước khi đi Quy nhơn, mọi người ai cũng khuyên nên đi Eo gió, mình đi đến vào thời điểm nắng gắt. Đi hơi cực, nhưng bù lại đến nơi thì Eo gió đối với mình rất đẹp, bạn có thể thoả sức sống ảo ở đây</t>
   </si>
   <si>
@@ -230,15 +210,9 @@
     <t>Một nơi thực sự tuyệt vời để tham quan.. Gió mát , cảnh đẹp , hùng vĩ .. Nên đến đây khi tới quy nhơn , vé vào 25k/người .</t>
   </si>
   <si>
-    <t>gió rất mạnh, mọi người cần chú ý khỏi bị bay đồ, điểm ngắm cảnh trên cao đẹp, có kính ngắm ra phía biển, tuy không rõ lắm. có 1 bãi cát nhỏ và 1 ghềnh đá khi xuống sát mép nước.</t>
-  </si>
-  <si>
     <t>Nơi này rất đẹp và còn hoang sơ mọi người đến đây rất đông mọi người nên đi sớm vì mình đi trễ trời rất nắng và nóng. Ngồi trên tảng đá nhìn xuống rất lãng mạn và nên thơ</t>
   </si>
   <si>
-    <t>Ai cũng ra Eo Gió, vì vậy thường khá đông khách, chen nhau chụp ảnh. Buổi chiều khoảng 3h là đã mát và khuất nắng. FLC làm mỗi cái đường bậc thang bê tông mà thu 25000d/vé với hàng ngàn khách mỗi ngày.</t>
-  </si>
-  <si>
     <t>Đây là một nơi được quy hoạch rất đẹp và làm dịch vụ du lịch rất tốt, tuy nhiên vì ở đây không phụ vụ đò ăn còn đồ uống thì phải ra khỏi khu du lịch mới mua đc nên rất bất tiện vì khu này cũng khá rộng, nên có 1 tụ điểm phụ vụ đồ ăn thức uống trong khu vực tham quan</t>
   </si>
   <si>
@@ -269,39 +243,21 @@
     <t>Eo Gió có cảnh đẹp, không khí mát với gió to.. Có biển, có đá, có bậc thang lên xuống giúp di chuyển dễ dàng</t>
   </si>
   <si>
-    <t>Mình mới đi ra Eo Gió. Cảnh đây đẹp để chụp hình nhưng ngoài ra phí dv khá cao khi đi tàu với 350k/1 người. khá mắc với bữa cơm chỉ có cá và dĩa ốc.</t>
-  </si>
-  <si>
-    <t>Đẹp, phù hợp với nhóm trẻ thích khám phá thiên nhiên, tuy nhiên khi đôg khách có nguy cơ tàn fá sự nguyên sơ của biển</t>
-  </si>
-  <si>
     <t>Tôi đến Eo Gió vào một ngày cuối tháng 10/2016, mùa này không phải là mùa du lịch vì thế ở đây cũng hơi vắng. Phong cảnh tuyệt đẹp với những dãy núi đá, nước biển xanh, trong veo.. Được dạo quanh Eo Gió để tận hưởng khí trời, gió biển thật tuyệt vời làm sao. Được ăn hải sản 7 món của quán Hoàng Thao (Eo Gió) ngay cạnh cổng ra Eo Gió cũng khá ngon, giá rẻ. Chắc chắn tôi sẽ đưa gia đình đến đây 1 lần cho biết.</t>
   </si>
   <si>
-    <t>Hãy đi bộ ra đây để chụp ảnh vì nếu đi bằng thuyền thì chỉ lướt qua thôi. Eo Gió với bãi biển Kỳ Co nằm gần nhau, đi Quy Nhơn bạn nên đến 2 địa điểm này</t>
-  </si>
-  <si>
     <t>từ con đường đi xuống đã có cảm giác không phải ở VN, đứng bên trên vách núi thấy rất muốn được nằm ở đó ngắm trời đêm. đi xuống dưới mới thấy bãi biển với những viên đá to tròn phủ rêu xanh cực đẹp.. Đi Quy Nhơn mà bỏ qua eo gió thì thật sự là đáng tiếc vô cùng. nếu đi nên dành chút thời gian đi hết những con đường khu eo gió để cảm nhận hết vẻ đẹp nơi này</t>
   </si>
   <si>
-    <t>Eo gió cách trung tâm thành phố khoảng 25km đi về hướng FLC resort đang xây dựng. Khu vực này có phong cảnh rất đẹp, nước trong mát và rất nhiều cá. Cảnh quan nhìn hùng vĩ hơn rất nhiều nếu trèo lên đỉnh Eo gió. Quanh khu vực eo gió còn nhiều rác</t>
-  </si>
-  <si>
     <t>lần đầu tiên đi đến đây rất hoang sơ, đẹp, du lịch tự phát của người dân khai thác chưa chuyên nghiệp, nhưng rất đẹp, thích ngắm san hô, ăn uống ở đây khá rẻ, mình và người yêu đến đây chi phí hết 500k</t>
   </si>
   <si>
     <t>Lần đầu đến Eo Gió tôingỡ ngàng khi nhìn thấy những rặng núi đá cao chót vót, chập chùng với hang động kỳ vĩ, rất nhiều đá và chim én.. Eo Gió đẹp theo kiểu hoang sơ, rặng núi có hình thù kỳ lạ, Sóng biển vỗ rì rào vờn chân núi, nhè nhẹ vào vách đá, âm thanh êm tai... thích cực kỳ.. phía trước bãi biển, những cụm đảo mang nhiều hình thù kỳ lạ lô nhô trên mặt nước, nhưng bãi biển ở Eo Gió không tắm đc. Tại vì đá nhiều và nguy hiểm</t>
   </si>
   <si>
-    <t>Theo sự chỉ dẫn của khách sạn. Chúng tôi thuê xe để phượt xuống Eo Gió. Rất đẹp. Ở mùa này. Gió rất to và lạnh nhưng ngắm cảnh rất thích. Chúng tôi chỉ ồ và à. Tại vì không biết diển tả như thế nào. Nó khác với những cảnh biển ở Nha Trang. Tôi sẽ quay lại nơi này nhiều lần nữa.</t>
-  </si>
-  <si>
     <t>Điểm du lịch sinh thái thiên nhiên, bãi biển đẹp, nước trong xanh, cực kỳ thoải mái với không khí trong lành. Người dân thân thiện cung cấp dịch vụ ăn uống và vận chuyển .</t>
   </si>
   <si>
-    <t>Địa điểm cảnh rất đẹp tuy nhiên còn ít người biết đến, dịch vụ còn chưa đầy đủ. Sắp tới sẽ có dự án xây dựng Khách sạn 7* đầu tiên của Việt Nam ( thứ 2 thế giới) ở đây và nhiều dự án khác, hy vọng sẽ có dịch vụ chuyên nghiệp hơn.</t>
-  </si>
-  <si>
     <t>Nằm trong trung tâm Quy Nhơn. Đây là hai ngọn tháp rất lâu đời được xây dựng từ cuối thế kỷ thứ XII và được công nhận là di tích kiến trúc nghệ thuật. Tháp được xây dựng từ những viên gạch đất nung nhưng nhìn rất chắc chắn. Nếu bạn là người thích tìm hiểu lịch sử và kiến trúc thì nên ghé qua đây.</t>
   </si>
   <si>
@@ -314,9 +270,6 @@
     <t>Một không gian cổ Champa còn lại giữa thành phố đang phát triển. Một nơi thú vị để tìm hiểu về văn hóa nghệ thuật của vương quốc Champa dọc dãi đất miền Trung</t>
   </si>
   <si>
-    <t>Chúng tôi đi phượt bằng xe máy, Tháp Đôi nằm trong trung tâm thành phố nhưng khi vào tham quan, 1 khung cảnh yên tĩnh + cảnh quan ở đây trong lành, cùng với người hướng dẫn tham quan là cô làm cỏ ở đó. Chúng tôi hiểu được rất nhiều điều về lịch sử của Tháp, vật liệu xây dựng,...Tóm lại tôi rất thích Tháp Đôi này!!!</t>
-  </si>
-  <si>
     <t>Tuy nó không đẹp bằng tháp Bánh Ít quê tôi, nhưng mà nó nằm ở một vị trí rất đẹp mắt, rất thuận tiện cho khách du lịch khám phá. Dĩ nhiên nó gồm hai tháp gần giống nhau nên được gọi là Tháp Đôi.</t>
   </si>
   <si>
@@ -335,12 +288,6 @@
     <t>Ví dụ tuyệt vời về những ngôi đền văn hóa Chăm, ngay bên cạnh roasd chính, Tip! ! ! ! , đi siêu sớm để có những bức ảnh tuyệt vời và không có đám đông</t>
   </si>
   <si>
-    <t>Hôm nay chúng tôi đến Tháp Đôi vì chúng tôi đang tìm kiếm những điều quan tâm trong khu vực. Vé vào cửa là 8000 đồng, bạn có thể dành khoảng 30 phút ở đây tối đa, không có nhiều thứ để xem và bất kỳ dấu hiệu nào chỉ được viết bằng tiếng Việt.</t>
-  </si>
-  <si>
-    <t>Đây là một sân nhỏ rợp bóng cây từ phía trước đường phố điển hình với lối vào dành cho gia đình 5 người với chi phí</t>
-  </si>
-  <si>
     <t>Bãi biển tuy chưa có nhiều dịch vụ vui chơi nhưng rất đẹp và sạch sẽ. Quy Nhơn đang dần trở thành địa điểm du lịch thú vị.</t>
   </si>
   <si>
@@ -356,54 +303,27 @@
     <t>Tôi cùng gia đình đi nghỉ trong tháng 7 vừa qua. Biển Quy Nhơn khá rộng, dài nhưng cát to và nhiều rác bẩn quá. Nước đục chứ không trong, vừa tắm vừa gạt rác nổi trôi lềnh bềnh. Sáng sớm ra biển thì rác rất nhiều nằm trên bờ.</t>
   </si>
   <si>
-    <t>Chúng tôi đi với ý định đến thăm bệnh viện không phải bãi biển Quý Hòa. Đó là một khung cảnh yên bình và thanh bình đáng kinh ngạc, chỉ cần đi bộ xung quanh trong hòa bình và yên tĩnh theo tốc độ của riêng bạn. Có nhiều ngôi mộ, tượng và bia mộ khác nhau để ngắm nhìn và đi lang thang xung quanh. Chúng tôi đã thực sự vào bệnh viện cũ (đã đọc rằng điều này là có thể) nhưng ngồi và có dừa bên bãi biển. Nếu một buổi sáng yên bình và yên tĩnh lôi cuốn bạn, hãy đến thăm. Xe buýt T 11 sẽ thả bạn trên con đường chính và bạn có thể đi bộ xuống ngọn đồi quanh co và đôi khi hẹp.</t>
-  </si>
-  <si>
-    <t>Tham quan bãi biển, bệnh viện cũ và ngôi làng nhỏ bên cạnh. Bãi biển yên tĩnh, không thực sự tốt cho bơi lội. Khu vực này là tốt đẹp. Con đường trên đồi thật tuyệt vời.</t>
-  </si>
-  <si>
-    <t>Một viên ngọc! ! ! Nếu bạn đang ở trong Quy Nhơn - thêm điều này vào hành trình của bạn. Chỉ mất 5 - 10 phút đi ô tô từ thị trấn và đáng giá. Chúng tôi đã bỏ học khi nhập viện bệnh phong cũ bây giờ là một 'bệnh viện da liễu' bạn trả tiền 5 đồng và đi bộ quanh trang web khá hấp dẫn - nếu bạn quan tâm đến y học, có rất nhiều tượng và các món quà đến các bác sĩ lịch sử nổi tiếng. Đó là một nơi rất độc đáo để đi và lên trên nó tất cả nó trở lại trên một bãi biển tuyệt đẹp với vùng biển rõ ràng hơn Quy Nhơn, một dải cát trắng tuyệt đẹp và không ai khác ở đó! ! ! ! Có một vài miễn phí để sử dụng ô dù ở cuối xa của vịnh mà không phải là dài để đi bộ. Được cảnh báo mang theo bữa trưa đóng gói của riêng bạn nếu bạn muốn ở lại để tận hưởng bãi biển vì không có gì khác ngoài bệnh viện.</t>
-  </si>
-  <si>
-    <t>Mát. Cảm giác đầu tiên là khoing khú rất mát mẻ, trong lành. Ta có thể lên núi theo 2 hình thức: đi bộ ( hơi bị mỏi chân à) hoặc đi xe máy</t>
-  </si>
-  <si>
     <t>Gần thành phố, khung cảnh tuyệt đẹp và tuyệt đẹp của thành phố Quy bào, nơi đẹp và thư giãn để dành vài kỷ niệm lãng mạn.</t>
   </si>
   <si>
     <t>Đi xe máy lên dốc để tận hưởng bầu không khí dễ chịu. Khi đến điểm quan sát, đừng quên tầm nhìn từ ngọn núi phía sau. Hoàng hôn tuyệt đẹp ở đó.</t>
   </si>
   <si>
-    <t>Đã đến đây để mặt trời mọc và đó là một điểm đẹp. Giống như một trong những đánh giá khác cho biết có một nhà kho gần cuối đường mòn và đằng sau nó là nơi hoàn hảo để ngồi xuống và tận hưởng tầm nhìn.. . Để đến nơi này từ thành phố Quy Nhơn, theo An D ?? ng V ?? ng (đường phố bên cạnh bãi biển) về phía nam và sau đó đi hết đường cho đến khi bạn đến QL 1 D. Băng qua QL 1 D và đi lên đường mòn về phía Suối Tiên Eco Zone. Đi tất cả các con đường đến đỉnh và bạn đang ở đó.</t>
-  </si>
-  <si>
     <t>Tượng Phật cao 108m tính từ đài sen. Muốn lên đến tượng phải leo khoảng 600 bậc thang. Bạn đường lo nhé vì dọc đường có mái che và ghế đá ngồi nghỉ. Tốt nhất là đi sớm cho mát. Gần lên đến chỗ tượng hai bên là Thập bát La Hán.</t>
   </si>
   <si>
     <t>Một điểm du lịch tốt ở Quy Huệ.. . Điều thú vị là có một cửa sổ thông gió ở phía sau bức tượng phật. Kiểm tra nó ra.. Điều quan trọng nhất là nhập học miễn phí. Hiện nay.</t>
   </si>
   <si>
-    <t>Truy cập tại đây vào tháng 4 năm 2019. Đây được gọi là bức tượng Budha lớn nhất của ASEAN.. . Nằm cách xa trung tâm thành phố QuyNhon.  600 bước lên đỉnh núi.. . Đề nghị khi bạn truy cập vào đây</t>
-  </si>
-  <si>
     <t>Hòn Đảo còn ít dịch vụ, tuy nhiên có nhiều san hô đẹp, đồ ăn hải sản tươi ngon , phong cảnh làng chài yên bình</t>
   </si>
   <si>
     <t>Tôi đã đến đây tháng 6 năm 2018. Tôi đã đi nhiều nơi, mỗi địa điểm đều có vẻ đẹp riêng, nơi đây đẹp, thiên nhiên còn đôi chút hoang sơ</t>
   </si>
   <si>
-    <t>Đảo Hòn Khô đúng như tên của nó, trơ toàn đá lởm chởm, không có cây. Bãi cát nhỏ hướng về phía trong đất liền. Khách thuê tàu ra tắm và ngắm san hô (rất gần bờ). Có thể thuê Kayak ở làng chài Nhơn Hải để chèo ra tận Hòn Khô chơi.</t>
-  </si>
-  <si>
-    <t>Hòn Khô là nơi không thể bỏ qua khi đến Quy Nhơn. Bãi rộng, xanh biếc, nước trong veo, không 1 cọng rác, có chỗ nhảy sóng, có chỗ rộng lặng như 1 chiếc hồ lớn để bơi, lặn với cá. Thời điểm sau rằm tháng 5 thì con đường trên biển ở đây lộ ra muộn , khoảng từ 3-5h chiều. Hải sản ở đây ko rẻ, không quá đắt nhưng cực kỳ tươi ngon, bắt từ lồng quây dưới biển lên chế biến luôn, ngon và ngọt cực kỳ. Hai điểm trừ là ko có nhà nghỉ để nghỉ luôn ở đảo mà phải vào đất liền ở và cát vàng to nhiều vỏ ốc và san hô dưới đáy nên quỳ nhiều bị dát đầu gối, nếu bơi lặn thì không vấn đề gì.</t>
-  </si>
-  <si>
     <t>Chẳng có gì, biển rất dơ, toàn rác vì sự thiếu ý thức của khách du lịch. Ngay cả thùng rác, nhà vệ sinh thay đồ cũng không có. Rất nắng</t>
   </si>
   <si>
-    <t>Thật thú vị khi đảo chỉ cách đất liền chưa đầy 10 phút đi tàu. Một nơi để các bạn khám phá và thưởng thức các món ăn ngon tuyệt tại nơi này.</t>
-  </si>
-  <si>
     <t>Bãi biển nhỏ bị dân mở hàng quán hết. Bãi cát có titan không được sạch. Dịch vụ ăn uống không có gì. Ăn ở đây cứ bị tiếc tiền sao ý. Trên bờ nhiều rác.</t>
   </si>
   <si>
@@ -422,30 +342,9 @@
     <t>không gần quy nhơn lắm nhưng đáng để đi và đáng đồng tiền. biển trong xanh nhưng khá ít san hô để ngắm.</t>
   </si>
   <si>
-    <t>Xin lỗi vì mình post đánh giá mang tính chất quảng cáo, nhưng có thể nó sẽ hữu dụng cho bạn nào cần.. Mình nhận tour đi Hòn Khô, bạn gọi mình số 01263723789 hoặc liên hệ mail: impactqn@gmail.com để được tư vấn tốt nhất. Tour gia đình mình làm nên đảm bảo phục vụ hết mình và giá cả hợp lý</t>
-  </si>
-  <si>
     <t>Nước biển rất trong và mát lạnh, hải sản rất ngon và đa dạng, đặc biệt là san hô đẹp mê ly. Người dân rất chu đáo và thân thiện.</t>
   </si>
   <si>
-    <t>Not the most impressive pagoda you'll see in your life, but worth a visit if you're around. What we liked (a lot) was a series of drawings showing the cause-consequence relationship of various good and bad behaviors.</t>
-  </si>
-  <si>
-    <t>Justo he ido hoy y de lo mejor de Quy Nhon, una maravilla y muy tranquila la visita, porque era yo el único turista. Muy recomendable</t>
-  </si>
-  <si>
-    <t>I first visited this temple in 1968, while serving with the US Army in Qui Nhon. It is at this place where I started my conversion to Buddhism. I was overwhelmed to find it again in 2015, almost by accident. I had been searching for it on my first return in 2009, but could not find it. Our guide in 2015 took us there, unknown by me.</t>
-  </si>
-  <si>
-    <t>Quy Nhon city has many agodas. This one is a highlight which located in the city center. I easily visit it by bike. The asmostphere is peaceful. There is a vegetarian/vegan restaurant next to the pagoda.</t>
-  </si>
-  <si>
-    <t>I and my friends visited this pagoda in the afternoon. We found it's very beautiful and peaceful. A few locals people went inside to pray. We just sat outside under the big tree and watch people because we wore shorts. It's a nice spot anyway.</t>
-  </si>
-  <si>
-    <t>Dating back to the early 18th century, this is Quy Nhon's premier pagoda. While it is not, in my opinion, a major attraction, it provides a nice contrast with Quy Nhon's main objects of interest, namely the eating of seafood and swimming at the city beach.. . There is a large standing Buddha at the front from the 1970s and a number of other recent additions. The main hall, however, is original and it is a simple prayer hall with a beautiful copper Buddha enshrined inside. Also of note are various mosaics made from broken Chinese porcelain.</t>
-  </si>
-  <si>
     <t>Mình và các chị bạn đã ghé qua Quy Nhơn vào Tháng 6/2020. Tại đây, mình có đặt tour 1 ngày thăm quan Cù Lao Xanh.. Qua chuyến thăm quan, mình nhận thấy:. -Phong cảnh nơi đây rất đẹp, có ngọn Hải đăng, có bãi đá Phương Mai, có bãi tắm nước trong xanh đến mức chỉ cần úp mặt xuống là đã có thể nhìn thấy san hô và cả những đàn cá bơi lội phía dưới.. -Hướng dẫn viên bản địa rất nhiệt tình mà cụ thể là em Lê Tuấn Anh 0973295140 đã rất thân thiện, vui vẻ trong suốt quá trình hướng dẫn du khách thăm quan các cảnh đẹp nơi đây cũng như giúp du khách rất nhiều trong việc chụp ảnh với mong muốn du khách sẽ có được những bức ảnh chụp cùng phong cảnh nơi đây đẹp nhất.. Sau chuyến thăm quan, mình được chiêu đãi bữa ăn trưa với rất nhiều món là hải sản tươi, ngon và được nghỉ một giấc trưa thật yên ả.. Tour 1 ngày thăm quan Cù Lao Xanh này thật sự đã để lại trong chị em mình một ấn tượng rất sâu sắc nên mình không thể không giới thiệu để mọi người cùng được biết.. Nếu có dịp ghé đến Quy Nhơn, mọi người hãy sắp xếp thời gian để có thể thăm quan Cù Lao Xanh nhé!</t>
   </si>
   <si>
@@ -461,9 +360,6 @@
     <t>Tới đây con người sẽ thấy mình trở lên thanh thản lạ . Một nơi thờ cúng tôn nghiêm với phong cảnh cực kỳ đẹp . Mọi bon chen đời thường tan biến hết khi đặt chân tới nơi này .</t>
   </si>
   <si>
-    <t>Công viên rộng , có nhiều hoạt đông . Ít thú . Địa điểm bổ ích cho trẻ em vui chơi . Nếu tăng cường trồng cây và hoa thêm cho đẹp thì tớt</t>
-  </si>
-  <si>
     <t>Giống khu nhốt thú hơn nơi nuôi thú. Quá tàn nhẫn với động vật, nhiều con không có chỗ để đi thì làm sao nó sống được. Tàn nhẫn</t>
   </si>
   <si>
@@ -473,9 +369,6 @@
     <t>Chào mừng các sở thú gần khách sạn nghỉ dưỡng FLC. vườn thú thực sự này, lý tưởng cho trẻ em dành vài giờ, cho con chơi</t>
   </si>
   <si>
-    <t>Đó là một chuyến đi vui vẻ với gia đình tôi! Vợ và con gái tôi đều thích nó! Nó là một nơi tuyệt đẹp. Nhiều loài động vật không nhìn thấy được.</t>
-  </si>
-  <si>
     <t>Những ai yêu thích du lịch về lịch sử, hãy đến với nơi đây nhé, ở đây có lưu trữ rất nhiều đồ vật thời chiến đấy.</t>
   </si>
   <si>
@@ -485,30 +378,12 @@
     <t>Bảo tàng nhỏ, nhưng đáng để ghé thăm bộ sưu tập tác phẩm điêu khắc của Champa. Tôi sẽ không khuyên bạn nên đến đây chỉ cho bảo tàng, nhưng nếu bạn đi qua Quy Nhơn (xuống thị trấn) thì đó là một điểm dừng chân tốt.</t>
   </si>
   <si>
-    <t>có những di tích lịch sử ở đây, đặc trưng về lịch sử, vua và anh hùng của Vi? t Nam, Ca hát "Tu? ng", Võ thuật</t>
-  </si>
-  <si>
-    <t>The church's architect is the French's style and has been kept in the good condition. It still looks amazing.</t>
-  </si>
-  <si>
     <t>cửa hàng bán những món đồ đặc biệt từ vải thổ cẩm truyền thống. còn được thưởng âm nhạc cổ truyền từ những học viên ở đây, thật là tuyệt vời. ngoài ra, họ còn vừa mở thêm một quán cà phê nhỏ phía trước, với cách trang trí cổ điển, đẹp mắt. đặc biệt là cà phê rất ngon. nhất định sẽ quay trở lại</t>
   </si>
   <si>
-    <t>Đây là một nơi đầy cảm hứng. Nhưng trong khi việc xây dựng diễn ra, nó có thể được tìm thấy ở 856/32/1 trên cùng một con đường sau đó đi xuống làn đường.</t>
-  </si>
-  <si>
     <t>Địa điểm đẹp, đáng yêu - và rất phải chăng - thủ công, nhân viên rất đẹp và thức ăn ngon với các lựa chọn thuần chay. Thật không may, họ không chơi nhạc khi chúng tôi đến đó nhưng vẫn yêu nơi này.</t>
   </si>
   <si>
-    <t>Khi tôi rơi vào mà không cảnh báo, nơi đó đang trong bóng tối. Rất ít trên màn hình. Không nhìn thấy trẻ em. Nhưng cà phê thì tốt.</t>
-  </si>
-  <si>
-    <t>Một số công việc tuyệt vời đang được thực hiện tại Trung tâm Nguyễn Nga. Hãy chắc chắn đến thăm và nghe ban nhạc tuyệt vời của các nhạc sĩ tài năng, những người phải đối mặt với nhiều thách thức. Các quán cà phê làm cho một cà phê tuyệt vời. Dịch vụ khách hàng tuyệt vời.. . Tạo sự khác biệt - được truyền cảm hứng - bạn sẽ vui vì bạn đã dành thời gian.</t>
-  </si>
-  <si>
-    <t>Nơi này thật đáng kinh ngạc. Chúng tôi đến quán cà phê vào một buổi chiều, và trở lại vào ngày hôm sau để giúp dạy một lớp tiếng Anh ngắn! Chúng tôi đã rất ấn tượng với tất cả các hàng hóa đẹp để bán, và cà phê ngon. . nhưng chủ yếu, nguyên nhân của trung tâm này chỉ làm cho trái tim tôi phát nổ! Nga là một người phụ nữ tuyệt vời và cô ấy đang làm những công việc đáng kinh ngạc, vị tha cho những người đáng được hưởng rất nhiều! Mọi người đều rất chào đón và vui mừng kết bạn mới. Thật khó để rời đi sau khi ở trong công ty của những người này chỉ trong một thời gian ngắn. Cảm ơn bạn đã cho tôi một buổi chiều đáng yêu như vậy! ! !</t>
-  </si>
-  <si>
     <t>Chúng tôi được chào đón nhiều nhất bởi cả nhân viên và tình nguyện viên. Những món quà đẹp và quán cà phê mới rất phong cách và sinh tố rất ngon. Chắc chắn là một nơi để ghé thăm và hỗ trợ công việc tuyệt vời nơi này đang làm.</t>
   </si>
   <si>
@@ -536,9 +411,6 @@
     <t>Cực kì hài lòng với tay nghề và sự nhiệt tình của các bạn kĩ thuật viên. Các bạn làm bài bản chứ k linh tinh như 1 số chỗ khác. Giá cả vô cùng phải chăng và nhân viên ko hề kì kèo xin tiền tip.. Mình đi 1 couple, đc bạn Nhã ở spa làm cho, ưng đến độ hơn cả spa ruột của mình ở ngoài Hà Nội</t>
   </si>
   <si>
-    <t>Resort đẹp, nằm trải dài bãi biển cát trắng. Phong cảnh chiều xuống và buổi tối thật đẹp và ấn tượng. Bãi biển rất rộng, tuy hơi sâu. Nếu muốn cho trẻ bới nên đi xuôi về phía làng, cso 1 bãi thoải nhỏ và không sóng. Resort thiết kế ấn tượng, hành lang dài mãi và đẹp. Nhân viên thân thiện. Bữa ăn tối với cảnh biển thất tuyệt vời. Tuy vậy hơi buồn cho gia đình có trẻ nhỏ và muốn ăn nhậu ngoài quán - vì xung quanh khá trống trải.</t>
-  </si>
-  <si>
     <t>Một khu nghỉ mát đáng kinh ngạc. Nhân viên tuyệt vời và thân thiện. Các phòng có ban công với tầm nhìn đáng kinh ngạc đến bãi cát trắng, bãi biển không tì vết. Thức ăn và nhà hàng tuyệt vời nhưng giá khu nghỉ dưỡng. Năm phút đi bộ trên bãi biển có ngư dân địa phương bán thức ăn hải sản tuyệt vời và quán ba lô ngon với thức ăn tuyệt vời. Yoga mỗi buổi sáng là tuyệt vời và spa là giật gân. Chúng tôi yêu nó ở đây.</t>
   </si>
   <si>
@@ -548,12 +420,6 @@
     <t>Bạn tôi và tôi đã đặt một buổi mát xa toàn thân miễn phí 60 phút như một phần của kỳ nghỉ Luxury Escapes tại Avani Resort và khi chúng tôi đến Spa, chúng tôi được cho biết rằng việc đặt phòng của chúng tôi không được thực hiện vì một số lý do. Nhưng các nhân viên rất tốt và hẹn một ngày mới vào thêm 30 phút. Chúng tôi rất hài lòng về điều này và nhân viên mát xa rất chu đáo và tôi đã được massage tốt nhất từ trước đến nay. Họ chỉ sử dụng các loại tẩy da chết tự nhiên và kem dưỡng da. Chúng tôi đã có cơ thể chà sả. Các căn rất đẹp, được bao quanh bởi những khu vườn và nhìn ra biển. Rất thú vị!</t>
   </si>
   <si>
-    <t>Khu nghỉ mát cung cấp những gì chúng tôi muốn. Nó đã được thư giãn, có phòng chất lượng, và thực phẩm phong nha. Đó là tài sản tốt nhất là sự thân thiện của nhân viên. Họ thực sự làm cho chúng tôi ở lại rất hoan nghênh. Khu nghỉ mát không xa thị xã Quy Nhơn và có bãi biển riêng. Tôi bơi một ngày nhưng ngày hôm sau chúng tôi được chào đón với con sứa khổng lồ! Họ đã đi vào ngày hôm sau. Tất nhiên họ có hồ bơi riêng của họ.. . Chúng tôi đã đi trên nhiều tour du lịch mà khách sạn sắp xếp mà nói chung là tốt. Nếu bạn thực hiện một chuyến đi trong ngày đến Quy Nhơn, hãy đảm bảo rằng bạn tư vấn cho hướng dẫn viên về sở thích của bạn.. . Thức ăn tổng thể là tốt. Yêu thích của chúng tôi là phần Hà Nội của thực đơn. Tuyệt vời đa dạng và không thể đi sai. Ăn sáng cũng tốt. Ngay bây giờ khu nghỉ mát trông giống như nó là tốt nhất xung quanh - và muốn giới thiệu nó.</t>
-  </si>
-  <si>
-    <t>Tôi ở bình phước đi quy nhơn du lịch. Đã thử trải nghiệm thấy cơ sở sạch sẽ nhân viên nhiệtvtinhf và giá thì rất rẻ. Lần sau có dịp ghé qn tôi sẽ gt bạn bè. Lần đầu làm 1 xuất chỉ có 90k rẻ mà khỏe vậy</t>
-  </si>
-  <si>
     <t>Giá quá rẻ so với chất lượng khách được cảm nhận. Trên cả tuyệt vời. Nhân viên nhiệt tình phòng sạch sẽ</t>
   </si>
   <si>
@@ -563,9 +429,6 @@
     <t>Cơ sở sạch sẽ, nhân viên nhiệt tình. Giá cả rẻ.. Chủ cơ sở cũng là người khiếm thị, là tấm gương nghị lực vượt qua số phận khi gặp biến cố lớn trong cuộc sống</t>
   </si>
   <si>
-    <t>Tại sao mọi người phát điên vì điều này? Vâng, đó là một ý tưởng tuyệt vời để có được kỹ năng từ những người mù, tôi thích điều đó. Nhưng dịch vụ tôi nhận được vẫn không phải là một trải nghiệm tốt. Anh chàng chạm vào dương vật của tôi nhiều lần cho đến khi tôi nói "Không" Họ nói chuyện với nhau suốt thời gian đó, họ thậm chí còn ợ trước mặt bạn. Anh trả lời điện thoại, đổi tiền với một cô gái khác và tôi nói dối ở đó mà không biết gì về chuyện đang xảy ra. Tôi trở về nhà với một cổ tay đau đớn. Cảm ơn người đánh giá xấu từ tripadvisors. Nói với thỏa thuận thực sự lần sau.</t>
-  </si>
-  <si>
     <t>Rất muốn giới thiệu dịch vụ, nhận được 2 mát xa đáng kinh ngạc. Để lại cho chúng tôi cả thư giãn và trẻ hóa.</t>
   </si>
   <si>
@@ -617,52 +480,374 @@
     <t>Tôi đã đến đây với bạn bè của tôi và mọi thứ đều tốt đẹp! Dịch vụ tốt, massage thật thư giãn! Căn phòng thực sự sạch sẽ và bạn có thể tắm nếu muốn trước và sau.</t>
   </si>
   <si>
-    <t>Mát-xa và dịch vụ tuyệt vời tại spa chạy cực kỳ hiện đại này. Đã có một massage cơ bắp Thụy Điển / Thái, giá trị lớn. Bắt đầu với một phòng tắm hơi, kết thúc với vòi sen nóng tuyệt vời. Chắc chắn trở về</t>
-  </si>
-  <si>
     <t>Một nơi khá tuyệt vời để Chill cùng bạn bè. Mình đến đây cùng nhóm bạn và tổ chức sinh nhật đúng ngày khai trương quán. Chủ là một anh người Việt và một anh Tây rất mê Vietnam. Thức ăn khá vừa miệng, đặc biệt là Pizza khá ngon và cocktail thì giá cả hợp lý. Quan trọng nhất là không gian quán rất ảo, có phong cách giống Lan Quế Phường, rất thích hợp cho nhóm bạn đến quẩy. Nhất định lần sau sẽ ghé lại nữa.</t>
-  </si>
-  <si>
-    <t>Everything is awesome!!!. Dịch vụ tốt, giá cả hợp lí, những con xe đều rất tốt, đảm bảo cho bạn có thể bon bon trên khắp nẻo đường Quy Nhơn.</t>
-  </si>
-  <si>
-    <t>Hired a scooter for three days. He gave us discount after a little of persuasion. We as a trouble with the key but he was with us within 10 minutes to sort the problem. Great guy very friendly!!</t>
-  </si>
-  <si>
-    <t>Die Anlage ist ausserordentlich schön, die Massage perfekt und zu einem bescheidenen Preis. Meine Frau und ich waren im selben Raum aber hatten unterschiedliche Massagen gebucht. Wir waren beiden sehr zufrieden.</t>
-  </si>
-  <si>
-    <t>Refused to do body or foot massage “because you came alone. We can do if you would come with couple. Now e can offer only facial massage”. Place looks fine, in menu you can find different pricing based on gender, but, be aware, male person can’t come alone :)</t>
-  </si>
-  <si>
-    <t>W Quy Nhon testował kilka salonów masażu i Sen Viet Spa jest moim ulubionym. Ceny są niskie, jakoś kosmetyków dobra a poziom zabiegów wysoki. Polecam masaż całego ciała, peeling, saunę i zabieg pielęgnacji twarzy. W Spa jest czysto, leci przyjemna muzyka i pali się nastrojowe światło. Bardzo profesjonalna i przyjazna obsługa nie mówi po angielsku ale ma listę zabiegów w tym języku więc bez problemu można się dogadać ).</t>
-  </si>
-  <si>
-    <t>Je donnerai un avis mitigé pour ce spa dont les massages ne sont pas de qualité constante. la première fois était très bien, mon ami à lui était très déçu du massage pratiqué par le jeune homme (du tripotage).. la deuxième fois pas mal aussi par contre la troisième une catastrophe c'était pourtant la même masseuse mais qui n'était pas du tout aussi attentive que les fois précédentes, résultat mal au cou et au bas du dos une fois les muscles refroidis.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -670,16 +855,306 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -691,16 +1166,13 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{D16B3DF2-FBF1-4069-AE7C-F4FB88701917}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="Review" tableColumnId="1"/>
       <queryTableField id="2" name="giai_tri" tableColumnId="2"/>
@@ -715,16 +1187,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2CFD08C-7DE1-4B45-B1EE-DF3844594159}" name="data_preprocess_giai_tri" displayName="data_preprocess_giai_tri" ref="A1:G195" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G195" xr:uid="{B3367498-EAC6-4514-BF66-9468DA2B8482}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data_preprocess_giai_tri" displayName="data_preprocess_giai_tri" ref="A1:G146" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G146"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{41437D7C-CC1F-458C-B0A0-A2639DF230EA}" uniqueName="1" name="Review" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{65AFDB8E-B43A-4271-83B0-7E4CCD82CD96}" uniqueName="2" name="giai_tri" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{1315CFC4-DBE8-4227-9BB3-7ACDC7D478E9}" uniqueName="3" name="luu_tru" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{650F5D50-F2C1-4BD2-8BC7-2A4D4E6EE7AB}" uniqueName="4" name="nha_hang" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{61F9706D-ECDE-4885-A8CF-F4365DF5520B}" uniqueName="5" name="an_uong" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{EAEC7C82-A938-4BF8-89DB-C1E3F99816D4}" uniqueName="6" name="di_chuyen" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{CFF91D80-E868-4C7D-A47D-D8F0F675C072}" uniqueName="7" name="mua_sam" queryTableFieldId="7"/>
+    <tableColumn id="1" name="Review" uniqueName="1" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="2" name="giai_tri" uniqueName="2" queryTableFieldId="2"/>
+    <tableColumn id="3" name="luu_tru" uniqueName="3" queryTableFieldId="3"/>
+    <tableColumn id="4" name="nha_hang" uniqueName="4" queryTableFieldId="4"/>
+    <tableColumn id="5" name="an_uong" uniqueName="5" queryTableFieldId="5"/>
+    <tableColumn id="6" name="di_chuyen" uniqueName="6" queryTableFieldId="6"/>
+    <tableColumn id="7" name="mua_sam" uniqueName="7" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -773,7 +1245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -806,26 +1278,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -858,23 +1313,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1016,33 +1454,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AE47DA-C67D-431A-9536-C88EA76534A3}">
-  <dimension ref="A1:G195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.1363636363636" customWidth="1"/>
+    <col min="2" max="2" width="9.42727272727273" customWidth="1"/>
+    <col min="3" max="3" width="9.70909090909091" customWidth="1"/>
+    <col min="4" max="4" width="11.8545454545455" customWidth="1"/>
+    <col min="5" max="5" width="10.8545454545455" customWidth="1"/>
+    <col min="6" max="6" width="12.4272727272727" customWidth="1"/>
+    <col min="7" max="7" width="11.7090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,12 +1500,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1088,12 +1523,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1111,12 +1546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1134,12 +1569,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1157,12 +1592,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1180,12 +1615,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1203,12 +1638,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1217,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1226,12 +1661,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1249,12 +1684,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1272,12 +1707,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1286,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1295,12 +1730,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1318,12 +1753,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1341,21 +1776,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1364,12 +1799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1381,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1410,12 +1845,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1433,12 +1868,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1456,12 +1891,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1479,12 +1914,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1496,18 +1931,18 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1525,12 +1960,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1548,12 +1983,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1571,12 +2006,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1594,12 +2029,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1608,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1617,12 +2052,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1640,12 +2075,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1663,12 +2098,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1677,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1686,12 +2121,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1709,12 +2144,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1732,12 +2167,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1755,12 +2190,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1778,12 +2213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1801,12 +2236,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1821,15 +2256,15 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1847,12 +2282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1870,12 +2305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1893,12 +2328,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1916,12 +2351,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1939,12 +2374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1962,12 +2397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1985,12 +2420,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1999,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2008,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2019,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2031,18 +2466,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2054,12 +2489,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2068,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2077,12 +2512,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2100,12 +2535,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2123,12 +2558,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2146,12 +2581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2169,12 +2604,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2192,12 +2627,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2215,12 +2650,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2238,12 +2673,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2261,12 +2696,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2284,12 +2719,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2307,12 +2742,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2330,12 +2765,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2344,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2353,12 +2788,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2376,12 +2811,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2399,12 +2834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2422,12 +2857,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2445,12 +2880,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2468,12 +2903,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2482,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2491,12 +2926,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2514,12 +2949,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2537,12 +2972,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2560,12 +2995,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2574,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2583,12 +3018,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2606,12 +3041,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2620,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2629,12 +3064,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2652,12 +3087,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2666,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2675,12 +3110,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2698,12 +3133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2721,12 +3156,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2744,12 +3179,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2767,12 +3202,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2790,12 +3225,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2813,12 +3248,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2836,12 +3271,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2859,12 +3294,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2882,12 +3317,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2905,12 +3340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2928,12 +3363,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2942,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2951,12 +3386,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2974,12 +3409,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2997,12 +3432,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3020,12 +3455,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3043,12 +3478,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3066,12 +3501,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3089,12 +3524,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3112,12 +3547,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3126,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -3135,12 +3570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3158,12 +3593,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3181,12 +3616,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3195,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3204,12 +3639,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3227,12 +3662,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3241,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -3250,12 +3685,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3264,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -3273,12 +3708,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -3296,12 +3731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -3319,12 +3754,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3333,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -3342,12 +3777,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3356,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -3365,12 +3800,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3388,12 +3823,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3411,12 +3846,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3434,12 +3869,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -3457,12 +3892,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -3480,12 +3915,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3503,12 +3938,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3526,12 +3961,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3549,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
         <v>115</v>
       </c>
@@ -3569,15 +4004,15 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -3595,12 +4030,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -3609,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3618,12 +4053,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -3632,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3641,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
         <v>119</v>
       </c>
@@ -3655,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3664,12 +4099,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -3687,12 +4122,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -3710,12 +4145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -3733,12 +4168,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -3756,12 +4191,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -3779,12 +4214,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -3802,12 +4237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -3825,12 +4260,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -3848,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
         <v>128</v>
       </c>
@@ -3856,27 +4291,27 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="G123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -3894,12 +4329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -3917,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
         <v>131</v>
       </c>
@@ -3925,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3940,12 +4375,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -3963,12 +4398,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3986,12 +4421,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -4009,12 +4444,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -4032,12 +4467,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -4055,12 +4490,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -4078,12 +4513,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -4101,12 +4536,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -4124,12 +4559,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -4147,12 +4582,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -4170,12 +4605,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -4193,12 +4628,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -4207,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -4216,12 +4651,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -4239,12 +4674,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -4262,12 +4697,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -4285,12 +4720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -4308,12 +4743,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -4331,12 +4766,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -4354,12 +4789,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -4377,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
         <v>151</v>
       </c>
@@ -4391,1144 +4826,18 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163">
-        <v>0</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>0</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>0</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>0</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
-        <v>0</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175">
-        <v>0</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
-      <c r="G176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-      <c r="G179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
-      <c r="G181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
-      <c r="G182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
-      </c>
-      <c r="G183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-      <c r="G184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-      <c r="G185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="D187">
-        <v>0</v>
-      </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-      <c r="D189">
-        <v>0</v>
-      </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
-      </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-      <c r="F190">
-        <v>0</v>
-      </c>
-      <c r="G190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="D191">
-        <v>0</v>
-      </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
-      <c r="G191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <v>0</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B193">
-        <v>0</v>
-      </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-      <c r="D193">
-        <v>0</v>
-      </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="D194">
-        <v>0</v>
-      </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194">
-        <v>0</v>
-      </c>
-      <c r="G194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-      <c r="D195">
-        <v>0</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-      <c r="G195">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -5540,8 +4849,6 @@
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0ADB6A-2E18-425D-97BC-459FC6315657}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
-  </ds:schemaRefs>
+  <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>